--- a/output/3_Regression/h19_test/h20table_mape.xlsx
+++ b/output/3_Regression/h19_test/h20table_mape.xlsx
@@ -452,7 +452,7 @@
         <v>20.018412652757</v>
       </c>
       <c r="F3">
-        <v>3.474237207577825</v>
+        <v>3.474237207577833</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>23.72016195128968</v>
       </c>
       <c r="F4">
-        <v>4.708818547399955</v>
+        <v>4.708818547399963</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -492,7 +492,7 @@
         <v>12.19299194286781</v>
       </c>
       <c r="F5">
-        <v>4.695796291445435</v>
+        <v>4.695796291445438</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -512,7 +512,7 @@
         <v>5.944871271280403</v>
       </c>
       <c r="F6">
-        <v>3.412080731237134</v>
+        <v>3.412080731237136</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -552,7 +552,7 @@
         <v>2.504319621137198</v>
       </c>
       <c r="F8">
-        <v>2.217100495368288</v>
+        <v>2.217100495368289</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -652,7 +652,7 @@
         <v>0.9954852062640958</v>
       </c>
       <c r="F13">
-        <v>0.9053653533423529</v>
+        <v>0.905365353342353</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h20table_mape.xlsx
+++ b/output/3_Regression/h19_test/h20table_mape.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_6124E003DA30921FD2FE31D2F8F2D3C244DFBFA2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F0A066F-F81D-4010-831D-30892ECBC2FC}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -43,11 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,154 +90,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -284,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -318,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -353,10 +213,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,19 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -561,18 +415,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.4678307041620981E-2</v>
+        <v>0.02467830704162098</v>
       </c>
       <c r="C2">
-        <v>46.076893992015137</v>
+        <v>46.07689399201514</v>
       </c>
       <c r="D2">
-        <v>18.326743388795851</v>
+        <v>18.32674338879585</v>
       </c>
       <c r="E2">
         <v>18.9684987900275</v>
@@ -581,55 +435,55 @@
         <v>3.168617702856686</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.3735532461801389E-2</v>
+        <v>0.02373553246180139</v>
       </c>
       <c r="C3">
-        <v>53.162124522823568</v>
+        <v>53.16212452282357</v>
       </c>
       <c r="D3">
-        <v>19.365974873860331</v>
+        <v>19.36597487386033</v>
       </c>
       <c r="E3">
         <v>20.018412652757</v>
       </c>
       <c r="F3">
-        <v>3.4742372075778332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.474237207577825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.874947483552453E-2</v>
+        <v>0.01874947483552453</v>
       </c>
       <c r="C4">
-        <v>72.179644866400025</v>
+        <v>72.17964486640003</v>
       </c>
       <c r="D4">
-        <v>22.864142263877142</v>
+        <v>22.86414226387714</v>
       </c>
       <c r="E4">
-        <v>23.720161951289679</v>
+        <v>23.72016195128968</v>
       </c>
       <c r="F4">
-        <v>4.7088185473999626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.708818547399952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.0687571036934279E-2</v>
+        <v>0.03068757103693428</v>
       </c>
       <c r="C5">
-        <v>45.719755189049167</v>
+        <v>45.71975518904917</v>
       </c>
       <c r="D5">
         <v>11.57181204963179</v>
@@ -638,38 +492,38 @@
         <v>12.19299194286781</v>
       </c>
       <c r="F5">
-        <v>4.6957962914454381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.695796291445435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.0815338629383699E-2</v>
+        <v>0.0508153386293837</v>
       </c>
       <c r="C6">
-        <v>27.873873053019452</v>
+        <v>27.87387305301945</v>
       </c>
       <c r="D6">
-        <v>5.7854423088721978</v>
+        <v>5.785442308872198</v>
       </c>
       <c r="E6">
-        <v>5.9448712712804026</v>
+        <v>5.944871271280403</v>
       </c>
       <c r="F6">
-        <v>3.4120807312371362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.412080731237134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.3752480557919761E-2</v>
+        <v>0.07375248055791976</v>
       </c>
       <c r="C7">
-        <v>19.035822395058808</v>
+        <v>19.03582239505881</v>
       </c>
       <c r="D7">
         <v>3.57497919096161</v>
@@ -678,30 +532,30 @@
         <v>3.590944361166799</v>
       </c>
       <c r="F7">
-        <v>2.6649349221472072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.664934922147207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9.6100154122060272E-2</v>
+        <v>0.09610015412206027</v>
       </c>
       <c r="C8">
         <v>14.31853274226955</v>
       </c>
       <c r="D8">
-        <v>2.5387975754469592</v>
+        <v>2.538797575446959</v>
       </c>
       <c r="E8">
-        <v>2.5043196211371979</v>
+        <v>2.504319621137198</v>
       </c>
       <c r="F8">
-        <v>2.2171004953682889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.217100495368288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -712,7 +566,7 @@
         <v>11.45643744014688</v>
       </c>
       <c r="D9">
-        <v>1.9655657391866079</v>
+        <v>1.965565739186608</v>
       </c>
       <c r="E9">
         <v>1.911336732699557</v>
@@ -721,15 +575,15 @@
         <v>1.856717861493425</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.13647717553347591</v>
+        <v>0.1364771755334759</v>
       </c>
       <c r="C10">
-        <v>9.4664122094175802</v>
+        <v>9.46641220941758</v>
       </c>
       <c r="D10">
         <v>1.591469128043999</v>
@@ -741,349 +595,67 @@
         <v>1.519678292722304</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.15646461323395611</v>
+        <v>0.1564646132339561</v>
       </c>
       <c r="C11">
-        <v>7.9015676929080501</v>
+        <v>7.90156769290805</v>
       </c>
       <c r="D11">
-        <v>1.3415089601384049</v>
+        <v>1.341508960138405</v>
       </c>
       <c r="E11">
         <v>1.279908803756066</v>
       </c>
       <c r="F11">
-        <v>1.1930513718766771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.193051371876677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.17802293840320271</v>
+        <v>0.1780229384032027</v>
       </c>
       <c r="C12">
-        <v>6.5759008999273441</v>
+        <v>6.575900899927344</v>
       </c>
       <c r="D12">
         <v>1.176879304498025</v>
       </c>
       <c r="E12">
-        <v>1.1178166035977859</v>
+        <v>1.117816603597786</v>
       </c>
       <c r="F12">
         <v>1.01487196753743</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.20141107232514741</v>
+        <v>0.2014110723251474</v>
       </c>
       <c r="C13">
-        <v>5.4445067815615724</v>
+        <v>5.444506781561572</v>
       </c>
       <c r="D13">
         <v>1.049454789135577</v>
       </c>
       <c r="E13">
-        <v>0.99548520626409576</v>
+        <v>0.9954852062640958</v>
       </c>
       <c r="F13">
-        <v>0.90536535334235302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>9</v>
-      </c>
-      <c r="K15" s="1">
-        <v>10</v>
-      </c>
-      <c r="L15" s="1">
-        <v>11</v>
-      </c>
-      <c r="M15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2.4678307041620981E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2.3735532461801389E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.874947483552453E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3.0687571036934279E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5.0815338629383699E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>7.3752480557919761E-2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>9.6100154122060272E-2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.116810816774225</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.13647717553347591</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.15646461323395611</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.17802293840320271</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.20141107232514699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>46.076893992015101</v>
-      </c>
-      <c r="C17" s="2">
-        <v>53.162124522823603</v>
-      </c>
-      <c r="D17" s="2">
-        <v>72.179644866399997</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45.719755189049202</v>
-      </c>
-      <c r="F17" s="2">
-        <v>27.873873053019452</v>
-      </c>
-      <c r="G17" s="2">
-        <v>19.035822395058801</v>
-      </c>
-      <c r="H17" s="2">
-        <v>14.31853274226955</v>
-      </c>
-      <c r="I17" s="2">
-        <v>11.45643744014688</v>
-      </c>
-      <c r="J17" s="2">
-        <v>9.4664122094175802</v>
-      </c>
-      <c r="K17" s="2">
-        <v>7.9015676929080501</v>
-      </c>
-      <c r="L17" s="2">
-        <v>6.5759008999273441</v>
-      </c>
-      <c r="M17" s="2">
-        <v>5.4445067815615724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>18.326743388795901</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19.365974873860299</v>
-      </c>
-      <c r="D18" s="2">
-        <v>22.864142263877142</v>
-      </c>
-      <c r="E18" s="2">
-        <v>11.57181204963179</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5.7854423088721996</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3.57497919096161</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2.5387975754469592</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.9655657391866079</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1.591469128043999</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1.3415089601384049</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1.176879304498025</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1.049454789135577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
-        <v>18.9684987900275</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20.018412652757</v>
-      </c>
-      <c r="D19" s="2">
-        <v>23.720161951289679</v>
-      </c>
-      <c r="E19" s="2">
-        <v>12.192991942867801</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5.9448712712804026</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3.5909443611667999</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2.5043196211371979</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1.9655657391866079</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1.530532329371163</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1.279908803756066</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1.1178166035977859</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.99548520626409576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.16861770285669</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3.4742372075778301</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4.70881854739996</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4.6957962914454381</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3.4120807312371402</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2.6649349221472072</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2.2171004953682889</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1.856717861493425</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1.519678292722304</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1.1930513718766771</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1.01487196753743</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.90536535334235302</v>
+        <v>0.9053653533423529</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:B20">
-    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D20">
-    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F20">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G20">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H20">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K20">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L20">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M20">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/3_Regression/h19_test/h20table_mape.xlsx
+++ b/output/3_Regression/h19_test/h20table_mape.xlsx
@@ -632,7 +632,7 @@
         <v>1.117816603597786</v>
       </c>
       <c r="F12">
-        <v>1.01487196753743</v>
+        <v>1.014871967537429</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -652,7 +652,7 @@
         <v>0.9954852062640958</v>
       </c>
       <c r="F13">
-        <v>0.9053653533423529</v>
+        <v>0.9053653533423527</v>
       </c>
     </row>
   </sheetData>
